--- a/Klienci/Baza_klientow.xlsx
+++ b/Klienci/Baza_klientow.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matek\PycharmProjects\MultiMeasure\Klienci\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{841CCE1D-4366-4061-B4DA-5C629225C41F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8357391D-DE7F-4304-AA15-BA7AE6244D1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3690" yWindow="795" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30540" yWindow="2805" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>LINETECH S.A.
 ul. Warecka 11A
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>Hitachi</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -372,10 +375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:C4"/>
+  <dimension ref="B2:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -399,12 +402,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" ht="45" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
